--- a/Database_backup/Haor-2020-08-06.xlsx
+++ b/Database_backup/Haor-2020-08-06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,16 +515,16 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:E15"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -547,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -562,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -577,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -592,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -607,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -622,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -637,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -652,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -667,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -697,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -712,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -727,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -742,22 +751,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -772,22 +781,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -817,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -832,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -847,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -877,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -892,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -907,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -937,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>

--- a/Database_backup/Haor-2020-08-06.xlsx
+++ b/Database_backup/Haor-2020-08-06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7476"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -514,17 +514,17 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>

--- a/Database_backup/Haor-2020-08-06.xlsx
+++ b/Database_backup/Haor-2020-08-06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Database_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Database_backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7476"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -515,16 +515,16 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
